--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Farhan\Documents\Data Analytics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7ADD81AE-6F92-4F02-A16A-4B03E75902BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7606C7D9-9CCE-4EDA-B42C-CDFBE1B95B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{163C42BB-9EF1-4A98-9D7D-6F29B24F564C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
   <si>
     <t>ID</t>
   </si>
@@ -63,9 +63,6 @@
   </si>
   <si>
     <t>Fine</t>
-  </si>
-  <si>
-    <t>Salary Sheet</t>
   </si>
   <si>
     <t>Ram</t>
@@ -123,18 +120,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="22"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -176,14 +164,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -501,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92473F52-DB78-454D-983B-CA34E9473F9B}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="169" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -517,353 +499,326 @@
     <col min="7" max="7" width="4.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="1">
+        <v>30000</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="1">
+        <v>600</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="1">
+        <v>25000</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="1">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="1">
+        <v>45000</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="1">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="1">
+        <v>25000</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="1">
+        <v>19000</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="1">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="1">
+        <v>50000</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="1">
         <v>0</v>
       </c>
-      <c r="B3" s="3" t="s">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="1">
+        <v>52000</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="1">
+        <v>95000</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="F9" s="1">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>1</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="G9" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="1">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="1">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="B11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D11" s="1">
         <v>30000</v>
       </c>
-      <c r="E4" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="F4" s="3">
+      <c r="E11" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="F11" s="1">
         <v>0.8</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G11" s="1">
         <v>0.1</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="3">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>2</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="3">
-        <v>25000</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="F5" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="G5" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="3">
+      <c r="H11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="1">
         <v>299</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>3</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="3">
-        <v>45000</v>
-      </c>
-      <c r="E6" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="F6" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="G6" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" s="3">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>4</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="3">
-        <v>25000</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="F7" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="G7" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I7" s="3">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>5</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="3">
-        <v>19000</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I8" s="3">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>6</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="3">
-        <v>50000</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="F9" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="G9" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>7</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="3">
-        <v>52000</v>
-      </c>
-      <c r="E10" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="F10" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="G10" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>8</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="3">
-        <v>95000</v>
-      </c>
-      <c r="E11" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="F11" s="3">
-        <v>1</v>
-      </c>
-      <c r="G11" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I11" s="3">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>9</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="3">
-        <v>10000</v>
-      </c>
-      <c r="E12" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="F12" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="G12" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I12" s="3">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>10</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="3">
-        <v>30000</v>
-      </c>
-      <c r="E13" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="F13" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="G13" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I13" s="3">
-        <v>299</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:I2"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
